--- a/biology/Botanique/Herbert_John_Webber/Herbert_John_Webber.xlsx
+++ b/biology/Botanique/Herbert_John_Webber/Herbert_John_Webber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbert John Webber est un botaniste  américain, né le 27 décembre 1865 (Lawton, Michigan) et mort le 18 janvier 1946 (Riverside, Californie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe son enfance dans une ferme de Marshalltown, Iowa, et veut au départ devenir avocat. Il est diplômé de l'université du Nebraska en 1889. Il mène des recherches de 1893 à 1897 sur les maladies des oranges en Floride pour le compte du Département de l'Agriculture des États-Unis. Il est à la tête du département de phytobiologie de 1889 à 1907. Il rentre ensuite dans l'enseignement comme professeur de phytobiologie à l'université Cornell (1907-1908) avant de devenir directeur (1909-1910 et professeur de phytobiologie de 1910 à 1912) du Département de l'Agriculture de New York. Il obtient en 1912 les postes de directeur de la station d'expérimentation sur les citrons à l'université de Californie ainsi que de doyen du département d'agriculture tropicale et de professeur de phytobiologie. En partenariat avec Walter Tennyson Swingle (1871-1952), il crée le Citrange, un agrume, par hybridisation.
 Il est le premier en 1903 à utiliser le mot clone pour désigner des plantes reproduites par multiplication asexuée.
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Herbert John Webber » (voir la liste des auteurs).</t>
         </is>
